--- a/downloads/exportExelCustomerNormal.xlsx
+++ b/downloads/exportExelCustomerNormal.xlsx
@@ -31,7 +31,7 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Kolpit Rathor</t>
+    <t>Arjun Singh</t>
   </si>
   <si>
     <t>akbk6551+1140@gmail.com</t>
